--- a/na importovani/ML - Obróbka cieplna fsfds.xlsx
+++ b/na importovani/ML - Obróbka cieplna fsfds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstary\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvontor\Documents\GitHub\p-evod-Pr-myslov--Automatizace\na importovani\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="45">
   <si>
     <t>pojemność</t>
   </si>
@@ -174,6 +174,9 @@
   <si>
     <t>pracoviste_id</t>
   </si>
+  <si>
+    <t>ML - Obróbka cieplna</t>
+  </si>
 </sst>
 </file>
 
@@ -775,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,6 +937,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,38 +988,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,33 +1363,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="67" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -2023,36 +2029,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="81" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" customHeight="1">
       <c r="B3" s="5" t="s">
@@ -2061,7 +2067,7 @@
       <c r="C3" s="6">
         <v>140</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="79" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="27"/>
@@ -2072,7 +2078,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="74"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="28">
         <v>35</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="74"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="28">
         <v>60</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>13.4</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="75"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="28">
         <v>60</v>
       </c>
@@ -2140,7 +2146,7 @@
       <c r="C8" s="8">
         <v>140</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="28"/>
@@ -2151,7 +2157,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="28">
         <v>35</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>7.5</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="74"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="28">
         <v>60</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="74"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="28">
         <v>60</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>13.4</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="75"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="28">
         <v>60</v>
       </c>
@@ -2212,7 +2218,7 @@
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="77">
         <v>3.1</v>
       </c>
       <c r="E13" s="29"/>
@@ -2223,12 +2229,12 @@
         <v>29</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="74"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="28">
         <v>35</v>
       </c>
       <c r="F14" s="37">
-        <f>E14*1.15</f>
+        <f t="shared" ref="F14:F19" si="0">E14*1.15</f>
         <v>40.25</v>
       </c>
       <c r="G14" t="s">
@@ -2240,12 +2246,12 @@
         <v>7</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="74"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="28">
         <v>60</v>
       </c>
       <c r="F15" s="37">
-        <f>E15*1.15</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -2254,12 +2260,12 @@
         <v>8</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="28">
         <v>60</v>
       </c>
       <c r="F16" s="37">
-        <f>E16*1.15</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -2268,12 +2274,12 @@
         <v>10</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="74"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="28">
         <v>60</v>
       </c>
       <c r="F17" s="37">
-        <f>E17*1.15</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -2282,12 +2288,12 @@
         <v>13.4</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="75"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="28">
         <v>60</v>
       </c>
       <c r="F18" s="37">
-        <f>E18*1.15</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -2305,7 +2311,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="37">
-        <f>E19*1.15</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -2316,7 +2322,7 @@
       <c r="C20" s="8">
         <v>140</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="77" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="28"/>
@@ -2327,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="28">
         <v>35</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="28">
         <v>60</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="75"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="28">
         <v>60</v>
       </c>
@@ -2395,7 +2401,7 @@
       <c r="C25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="77" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="29"/>
@@ -2406,12 +2412,12 @@
         <v>5</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="28">
         <v>35</v>
       </c>
       <c r="F26" s="37">
-        <f>E26*1.15</f>
+        <f t="shared" ref="F26:F34" si="1">E26*1.15</f>
         <v>40.25</v>
       </c>
       <c r="G26" t="s">
@@ -2423,12 +2429,12 @@
         <v>6</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="74"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="28">
         <v>35</v>
       </c>
       <c r="F27" s="37">
-        <f>E27*1.15</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
       <c r="G27" t="s">
@@ -2440,12 +2446,12 @@
         <v>7</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="74"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="28">
         <v>60</v>
       </c>
       <c r="F28" s="37">
-        <f>E28*1.15</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -2454,12 +2460,12 @@
         <v>10</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="28">
         <v>60</v>
       </c>
       <c r="F29" s="37">
-        <f>E29*1.15</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -2470,14 +2476,14 @@
       <c r="C30" s="8">
         <v>140</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="77">
         <v>3.95</v>
       </c>
       <c r="E30" s="28">
         <v>35</v>
       </c>
       <c r="F30" s="37">
-        <f>E30*1.15</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
       <c r="G30" t="s">
@@ -2489,12 +2495,12 @@
         <v>6</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="74"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="28">
         <v>35</v>
       </c>
       <c r="F31" s="37">
-        <f>E31*1.15</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
       <c r="G31" t="s">
@@ -2506,12 +2512,12 @@
         <v>8</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="74"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="28">
         <v>60</v>
       </c>
       <c r="F32" s="37">
-        <f>E32*1.15</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -2520,12 +2526,12 @@
         <v>10</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="77"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="30">
         <v>60</v>
       </c>
       <c r="F33" s="38">
-        <f>E33*1.15</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -2543,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="F34" s="39">
-        <f>E34*1.15</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -2554,7 +2560,7 @@
       <c r="C35" s="8">
         <v>160</v>
       </c>
-      <c r="D35" s="76">
+      <c r="D35" s="77">
         <v>3.4</v>
       </c>
       <c r="E35" s="28"/>
@@ -2565,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="74"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="28">
         <v>60</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="75"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="28">
         <v>60</v>
       </c>
@@ -2613,7 +2619,7 @@
       <c r="C39" s="6">
         <v>171</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="79">
         <v>3.45</v>
       </c>
       <c r="E39" s="32"/>
@@ -2624,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="75"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="28">
         <v>60</v>
       </c>
@@ -2640,7 +2646,7 @@
       <c r="C41" s="8">
         <v>171</v>
       </c>
-      <c r="D41" s="76">
+      <c r="D41" s="77">
         <v>3.6</v>
       </c>
       <c r="E41" s="29"/>
@@ -2651,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="77"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="30">
         <v>60</v>
       </c>
@@ -2667,7 +2673,7 @@
       <c r="C43" s="6">
         <v>178</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="79">
         <v>3.1</v>
       </c>
       <c r="E43" s="31">
@@ -2683,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="75"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="28">
         <v>60</v>
       </c>
@@ -2699,7 +2705,7 @@
       <c r="C45" s="8">
         <v>178</v>
       </c>
-      <c r="D45" s="76">
+      <c r="D45" s="77">
         <v>3.2</v>
       </c>
       <c r="E45" s="28"/>
@@ -2710,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="74"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="28">
         <v>60</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="74"/>
+      <c r="D47" s="79"/>
       <c r="E47" s="28">
         <v>60</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="75"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="28">
         <v>60</v>
       </c>
@@ -2754,7 +2760,7 @@
       <c r="C49" s="8">
         <v>178</v>
       </c>
-      <c r="D49" s="76">
+      <c r="D49" s="77">
         <v>3.6</v>
       </c>
       <c r="E49" s="28"/>
@@ -2765,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="8"/>
-      <c r="D50" s="74"/>
+      <c r="D50" s="79"/>
       <c r="E50" s="28">
         <v>60</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="8"/>
-      <c r="D51" s="75"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="28">
         <v>60</v>
       </c>
@@ -2795,7 +2801,7 @@
       <c r="C52" s="8">
         <v>178</v>
       </c>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="77" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="28"/>
@@ -2806,12 +2812,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="74"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="28">
         <v>60</v>
       </c>
       <c r="F53" s="37">
-        <f>E53*1.15</f>
+        <f t="shared" ref="F53:F77" si="2">E53*1.15</f>
         <v>69</v>
       </c>
     </row>
@@ -2820,12 +2826,12 @@
         <v>10.8</v>
       </c>
       <c r="C54" s="8"/>
-      <c r="D54" s="74"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="28">
         <v>60</v>
       </c>
       <c r="F54" s="37">
-        <f>E54*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2834,12 +2840,12 @@
         <v>14</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="74"/>
+      <c r="D55" s="79"/>
       <c r="E55" s="28">
         <v>60</v>
       </c>
       <c r="F55" s="37">
-        <f>E55*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2848,12 +2854,12 @@
         <v>15.75</v>
       </c>
       <c r="C56" s="8"/>
-      <c r="D56" s="75"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="28">
         <v>60</v>
       </c>
       <c r="F56" s="37">
-        <f>E56*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2871,7 +2877,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="37">
-        <f>E57*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2882,14 +2888,14 @@
       <c r="C58" s="8">
         <v>178</v>
       </c>
-      <c r="D58" s="76">
+      <c r="D58" s="77">
         <v>4.6500000000000004</v>
       </c>
       <c r="E58" s="28">
         <v>60</v>
       </c>
       <c r="F58" s="37">
-        <f>E58*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2898,12 +2904,12 @@
         <v>12</v>
       </c>
       <c r="C59" s="8"/>
-      <c r="D59" s="75"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="28">
         <v>60</v>
       </c>
       <c r="F59" s="37">
-        <f>E59*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2921,7 +2927,7 @@
         <v>60</v>
       </c>
       <c r="F60" s="37">
-        <f>E60*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2939,7 +2945,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="37">
-        <f>E61*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2950,12 +2956,12 @@
       <c r="C62" s="8">
         <v>178</v>
       </c>
-      <c r="D62" s="76">
+      <c r="D62" s="77">
         <v>6.7</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="37">
-        <f>E62*1.15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2964,12 +2970,12 @@
         <v>10</v>
       </c>
       <c r="C63" s="17"/>
-      <c r="D63" s="74"/>
+      <c r="D63" s="79"/>
       <c r="E63" s="33">
         <v>60</v>
       </c>
       <c r="F63" s="37">
-        <f>E63*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -2978,12 +2984,12 @@
         <v>15</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="77"/>
+      <c r="D64" s="78"/>
       <c r="E64" s="30">
         <v>60</v>
       </c>
       <c r="F64" s="40">
-        <f>E64*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3001,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="41">
-        <f>E65*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3019,7 +3025,7 @@
         <v>60</v>
       </c>
       <c r="F66" s="37">
-        <f>E66*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3030,14 +3036,14 @@
       <c r="C67" s="8">
         <v>204</v>
       </c>
-      <c r="D67" s="76">
+      <c r="D67" s="77">
         <v>3.6</v>
       </c>
       <c r="E67" s="31">
         <v>60</v>
       </c>
       <c r="F67" s="37">
-        <f>E67*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3046,12 +3052,12 @@
         <v>13.4</v>
       </c>
       <c r="C68" s="8"/>
-      <c r="D68" s="74"/>
+      <c r="D68" s="79"/>
       <c r="E68" s="31">
         <v>60</v>
       </c>
       <c r="F68" s="37">
-        <f>E68*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3060,12 +3066,12 @@
         <v>20</v>
       </c>
       <c r="C69" s="8"/>
-      <c r="D69" s="75"/>
+      <c r="D69" s="80"/>
       <c r="E69" s="31">
         <v>60</v>
       </c>
       <c r="F69" s="37">
-        <f>E69*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3076,14 +3082,14 @@
       <c r="C70" s="8">
         <v>204</v>
       </c>
-      <c r="D70" s="76">
+      <c r="D70" s="77">
         <v>3.8</v>
       </c>
       <c r="E70" s="31">
         <v>60</v>
       </c>
       <c r="F70" s="37">
-        <f>E70*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3092,12 +3098,12 @@
         <v>13.4</v>
       </c>
       <c r="C71" s="8"/>
-      <c r="D71" s="74"/>
+      <c r="D71" s="79"/>
       <c r="E71" s="31">
         <v>60</v>
       </c>
       <c r="F71" s="37">
-        <f>E71*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3106,12 +3112,12 @@
         <v>20</v>
       </c>
       <c r="C72" s="8"/>
-      <c r="D72" s="75"/>
+      <c r="D72" s="80"/>
       <c r="E72" s="31">
         <v>60</v>
       </c>
       <c r="F72" s="37">
-        <f>E72*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3122,14 +3128,14 @@
       <c r="C73" s="8">
         <v>204</v>
       </c>
-      <c r="D73" s="76">
+      <c r="D73" s="77">
         <v>4.0999999999999996</v>
       </c>
       <c r="E73" s="31">
         <v>60</v>
       </c>
       <c r="F73" s="37">
-        <f>E73*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3138,12 +3144,12 @@
         <v>13.4</v>
       </c>
       <c r="C74" s="8"/>
-      <c r="D74" s="74"/>
+      <c r="D74" s="79"/>
       <c r="E74" s="31">
         <v>60</v>
       </c>
       <c r="F74" s="37">
-        <f>E74*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3152,12 +3158,12 @@
         <v>20</v>
       </c>
       <c r="C75" s="8"/>
-      <c r="D75" s="75"/>
+      <c r="D75" s="80"/>
       <c r="E75" s="31">
         <v>60</v>
       </c>
       <c r="F75" s="37">
-        <f>E75*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3175,7 +3181,7 @@
         <v>60</v>
       </c>
       <c r="F76" s="37">
-        <f>E76*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3193,22 +3199,12 @@
         <v>60</v>
       </c>
       <c r="F77" s="38">
-        <f>E77*1.15</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D49:D51"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
@@ -3224,6 +3220,16 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D49:D51"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
@@ -3232,32 +3238,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+      <c r="F1" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="46" t="str">
         <f>IF(ML!B3="",#REF!, IF(ISNUMBER(FIND("-", ML!B3)), LEFT(ML!B3, FIND("-",ML!B3)-1),ML!B3))</f>
         <v>5</v>
@@ -3272,8 +3284,11 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="46" t="str">
         <f>IF(ML!B4="",A2, IF(ISNUMBER(FIND("-", ML!B4)), LEFT(ML!B4, FIND("-",ML!B4)-1),ML!B4))</f>
         <v>5</v>
@@ -3293,8 +3308,11 @@
         <f>D3*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="46">
         <f>IF(ML!B5="",A3, IF(ISNUMBER(FIND("-", ML!B5)), LEFT(ML!B5, FIND("-",ML!B5)-1),ML!B5))</f>
         <v>10</v>
@@ -3314,8 +3332,11 @@
         <f>D4*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="46">
         <f>IF(ML!B6="",A4, IF(ISNUMBER(FIND("-", ML!B6)), LEFT(ML!B6, FIND("-",ML!B6)-1),ML!B6))</f>
         <v>13.4</v>
@@ -3335,8 +3356,11 @@
         <f>D5*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="46" t="str">
         <f>IF(ML!B7="",A5, IF(ISNUMBER(FIND("-", ML!B7)), LEFT(ML!B7, FIND("-",ML!B7)-1),ML!B7))</f>
         <v>6elip</v>
@@ -3356,8 +3380,11 @@
         <f>D6*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="46" t="str">
         <f>IF(ML!B8="",A6, IF(ISNUMBER(FIND("-", ML!B8)), LEFT(ML!B8, FIND("-",ML!B8)-1),ML!B8))</f>
         <v>5</v>
@@ -3372,8 +3399,11 @@
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="46" t="str">
         <f>IF(ML!B9="",A7, IF(ISNUMBER(FIND("-", ML!B9)), LEFT(ML!B9, FIND("-",ML!B9)-1),ML!B9))</f>
         <v>5</v>
@@ -3393,8 +3423,11 @@
         <f>D8*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="46">
         <f>IF(ML!B10="",A8, IF(ISNUMBER(FIND("-", ML!B10)), LEFT(ML!B10, FIND("-",ML!B10)-1),ML!B10))</f>
         <v>7.5</v>
@@ -3414,8 +3447,11 @@
         <f>D9*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="46">
         <f>IF(ML!B11="",A9, IF(ISNUMBER(FIND("-", ML!B11)), LEFT(ML!B11, FIND("-",ML!B11)-1),ML!B11))</f>
         <v>10</v>
@@ -3435,8 +3471,11 @@
         <f>D10*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="46">
         <f>IF(ML!B12="",A10, IF(ISNUMBER(FIND("-", ML!B12)), LEFT(ML!B12, FIND("-",ML!B12)-1),ML!B12))</f>
         <v>13.4</v>
@@ -3456,8 +3495,11 @@
         <f>D11*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="46" t="str">
         <f>IF(ML!B13="",A11, IF(ISNUMBER(FIND("-", ML!B13)), LEFT(ML!B13, FIND("-",ML!B13)-1),ML!B13))</f>
         <v>5</v>
@@ -3472,8 +3514,11 @@
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" ht="15">
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="46" t="str">
         <f>IF(ML!B14="",A12, IF(ISNUMBER(FIND("-", ML!B14)), LEFT(ML!B14, FIND("-",ML!B14)-1),ML!B14))</f>
         <v>5</v>
@@ -3490,11 +3535,14 @@
         <v>35</v>
       </c>
       <c r="E13" s="37">
-        <f>D13*1.15</f>
+        <f t="shared" ref="E13:E18" si="0">D13*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="46">
         <f>IF(ML!B15="",A13, IF(ISNUMBER(FIND("-", ML!B15)), LEFT(ML!B15, FIND("-",ML!B15)-1),ML!B15))</f>
         <v>7</v>
@@ -3511,11 +3559,14 @@
         <v>60</v>
       </c>
       <c r="E14" s="37">
-        <f>D14*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="46">
         <f>IF(ML!B16="",A14, IF(ISNUMBER(FIND("-", ML!B16)), LEFT(ML!B16, FIND("-",ML!B16)-1),ML!B16))</f>
         <v>8</v>
@@ -3532,11 +3583,14 @@
         <v>60</v>
       </c>
       <c r="E15" s="37">
-        <f>D15*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="46">
         <f>IF(ML!B17="",A15, IF(ISNUMBER(FIND("-", ML!B17)), LEFT(ML!B17, FIND("-",ML!B17)-1),ML!B17))</f>
         <v>10</v>
@@ -3553,11 +3607,14 @@
         <v>60</v>
       </c>
       <c r="E16" s="37">
-        <f>D16*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="46">
         <f>IF(ML!B18="",A16, IF(ISNUMBER(FIND("-", ML!B18)), LEFT(ML!B18, FIND("-",ML!B18)-1),ML!B18))</f>
         <v>13.4</v>
@@ -3574,11 +3631,14 @@
         <v>60</v>
       </c>
       <c r="E17" s="37">
-        <f>D17*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="46">
         <f>IF(ML!B19="",A17, IF(ISNUMBER(FIND("-", ML!B19)), LEFT(ML!B19, FIND("-",ML!B19)-1),ML!B19))</f>
         <v>10</v>
@@ -3595,11 +3655,14 @@
         <v>60</v>
       </c>
       <c r="E18" s="37">
-        <f>D18*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="46" t="str">
         <f>IF(ML!B20="",A18, IF(ISNUMBER(FIND("-", ML!B20)), LEFT(ML!B20, FIND("-",ML!B20)-1),ML!B20))</f>
         <v>5</v>
@@ -3614,8 +3677,11 @@
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="1:5" ht="15">
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="46">
         <f>IF(ML!B21="",A19, IF(ISNUMBER(FIND("-", ML!B21)), LEFT(ML!B21, FIND("-",ML!B21)-1),ML!B21))</f>
         <v>5</v>
@@ -3635,8 +3701,11 @@
         <f>D20*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15">
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="46">
         <f>IF(ML!B22="",A20, IF(ISNUMBER(FIND("-", ML!B22)), LEFT(ML!B22, FIND("-",ML!B22)-1),ML!B22))</f>
         <v>9</v>
@@ -3656,8 +3725,11 @@
         <f>D21*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15">
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="46">
         <f>IF(ML!B23="",A21, IF(ISNUMBER(FIND("-", ML!B23)), LEFT(ML!B23, FIND("-",ML!B23)-1),ML!B23))</f>
         <v>10</v>
@@ -3677,8 +3749,11 @@
         <f>D22*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="46" t="str">
         <f>IF(ML!B24="",A22, IF(ISNUMBER(FIND("-", ML!B24)), LEFT(ML!B24, FIND("-",ML!B24)-1),ML!B24))</f>
         <v>6,8elip</v>
@@ -3698,8 +3773,11 @@
         <f>D23*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="46" t="str">
         <f>IF(ML!B25="",A23, IF(ISNUMBER(FIND("-", ML!B25)), LEFT(ML!B25, FIND("-",ML!B25)-1),ML!B25))</f>
         <v>4</v>
@@ -3714,8 +3792,11 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="46">
         <f>IF(ML!B26="",A24, IF(ISNUMBER(FIND("-", ML!B26)), LEFT(ML!B26, FIND("-",ML!B26)-1),ML!B26))</f>
         <v>5</v>
@@ -3732,11 +3813,14 @@
         <v>35</v>
       </c>
       <c r="E25" s="37">
-        <f>D25*1.15</f>
+        <f t="shared" ref="E25:E33" si="1">D25*1.15</f>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="46">
         <f>IF(ML!B27="",A25, IF(ISNUMBER(FIND("-", ML!B27)), LEFT(ML!B27, FIND("-",ML!B27)-1),ML!B27))</f>
         <v>6</v>
@@ -3753,11 +3837,14 @@
         <v>35</v>
       </c>
       <c r="E26" s="37">
-        <f>D26*1.15</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15">
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="46">
         <f>IF(ML!B28="",A26, IF(ISNUMBER(FIND("-", ML!B28)), LEFT(ML!B28, FIND("-",ML!B28)-1),ML!B28))</f>
         <v>7</v>
@@ -3774,11 +3861,14 @@
         <v>60</v>
       </c>
       <c r="E27" s="37">
-        <f>D27*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="46">
         <f>IF(ML!B29="",A27, IF(ISNUMBER(FIND("-", ML!B29)), LEFT(ML!B29, FIND("-",ML!B29)-1),ML!B29))</f>
         <v>10</v>
@@ -3795,11 +3885,14 @@
         <v>60</v>
       </c>
       <c r="E28" s="37">
-        <f>D28*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="46">
         <f>IF(ML!B30="",A28, IF(ISNUMBER(FIND("-", ML!B30)), LEFT(ML!B30, FIND("-",ML!B30)-1),ML!B30))</f>
         <v>5</v>
@@ -3816,11 +3909,14 @@
         <v>35</v>
       </c>
       <c r="E29" s="37">
-        <f>D29*1.15</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="46">
         <f>IF(ML!B31="",A29, IF(ISNUMBER(FIND("-", ML!B31)), LEFT(ML!B31, FIND("-",ML!B31)-1),ML!B31))</f>
         <v>6</v>
@@ -3837,11 +3933,14 @@
         <v>35</v>
       </c>
       <c r="E30" s="37">
-        <f>D30*1.15</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15">
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="46">
         <f>IF(ML!B32="",A30, IF(ISNUMBER(FIND("-", ML!B32)), LEFT(ML!B32, FIND("-",ML!B32)-1),ML!B32))</f>
         <v>8</v>
@@ -3858,11 +3957,14 @@
         <v>60</v>
       </c>
       <c r="E31" s="37">
-        <f>D31*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="46">
         <f>IF(ML!B33="",A31, IF(ISNUMBER(FIND("-", ML!B33)), LEFT(ML!B33, FIND("-",ML!B33)-1),ML!B33))</f>
         <v>10</v>
@@ -3879,11 +3981,14 @@
         <v>60</v>
       </c>
       <c r="E32" s="38">
-        <f>D32*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="46">
         <f>IF(ML!B34="",A32, IF(ISNUMBER(FIND("-", ML!B34)), LEFT(ML!B34, FIND("-",ML!B34)-1),ML!B34))</f>
         <v>10</v>
@@ -3900,11 +4005,14 @@
         <v>60</v>
       </c>
       <c r="E33" s="39">
-        <f>D33*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="46" t="str">
         <f>IF(ML!B35="",A33, IF(ISNUMBER(FIND("-", ML!B35)), LEFT(ML!B35, FIND("-",ML!B35)-1),ML!B35))</f>
         <v>10</v>
@@ -3919,8 +4027,11 @@
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="37"/>
-    </row>
-    <row r="35" spans="1:5" ht="15">
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="46">
         <f>IF(ML!B36="",A34, IF(ISNUMBER(FIND("-", ML!B36)), LEFT(ML!B36, FIND("-",ML!B36)-1),ML!B36))</f>
         <v>10</v>
@@ -3940,8 +4051,11 @@
         <f>D35*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15">
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="46">
         <f>IF(ML!B37="",A35, IF(ISNUMBER(FIND("-", ML!B37)), LEFT(ML!B37, FIND("-",ML!B37)-1),ML!B37))</f>
         <v>14</v>
@@ -3961,8 +4075,11 @@
         <f>D36*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" s="46">
         <f>IF(ML!B38="",A36, IF(ISNUMBER(FIND("-", ML!B38)), LEFT(ML!B38, FIND("-",ML!B38)-1),ML!B38))</f>
         <v>10</v>
@@ -3982,8 +4099,11 @@
         <f>D37*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="46" t="str">
         <f>IF(ML!B39="",A37, IF(ISNUMBER(FIND("-", ML!B39)), LEFT(ML!B39, FIND("-",ML!B39)-1),ML!B39))</f>
         <v>10</v>
@@ -3998,8 +4118,11 @@
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5" ht="15">
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="46">
         <f>IF(ML!B40="",A38, IF(ISNUMBER(FIND("-", ML!B40)), LEFT(ML!B40, FIND("-",ML!B40)-1),ML!B40))</f>
         <v>10</v>
@@ -4019,8 +4142,11 @@
         <f>D39*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="46" t="str">
         <f>IF(ML!B41="",A39, IF(ISNUMBER(FIND("-", ML!B41)), LEFT(ML!B41, FIND("-",ML!B41)-1),ML!B41))</f>
         <v>8</v>
@@ -4035,8 +4161,11 @@
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="37"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" s="46">
         <f>IF(ML!B42="",A40, IF(ISNUMBER(FIND("-", ML!B42)), LEFT(ML!B42, FIND("-",ML!B42)-1),ML!B42))</f>
         <v>8</v>
@@ -4056,8 +4185,11 @@
         <f>D41*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="46" t="str">
         <f>IF(ML!B43="",A41, IF(ISNUMBER(FIND("-", ML!B43)), LEFT(ML!B43, FIND("-",ML!B43)-1),ML!B43))</f>
         <v>8</v>
@@ -4077,8 +4209,11 @@
         <f>D42*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15">
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="46">
         <f>IF(ML!B44="",A42, IF(ISNUMBER(FIND("-", ML!B44)), LEFT(ML!B44, FIND("-",ML!B44)-1),ML!B44))</f>
         <v>10</v>
@@ -4098,8 +4233,11 @@
         <f>D43*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="46" t="str">
         <f>IF(ML!B45="",A43, IF(ISNUMBER(FIND("-", ML!B45)), LEFT(ML!B45, FIND("-",ML!B45)-1),ML!B45))</f>
         <v>8</v>
@@ -4114,8 +4252,11 @@
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="37"/>
-    </row>
-    <row r="45" spans="1:5" ht="15">
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="46">
         <f>IF(ML!B46="",A44, IF(ISNUMBER(FIND("-", ML!B46)), LEFT(ML!B46, FIND("-",ML!B46)-1),ML!B46))</f>
         <v>8</v>
@@ -4135,8 +4276,11 @@
         <f>D45*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="46">
         <f>IF(ML!B47="",A45, IF(ISNUMBER(FIND("-", ML!B47)), LEFT(ML!B47, FIND("-",ML!B47)-1),ML!B47))</f>
         <v>10</v>
@@ -4156,8 +4300,11 @@
         <f>D46*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="46">
         <f>IF(ML!B48="",A46, IF(ISNUMBER(FIND("-", ML!B48)), LEFT(ML!B48, FIND("-",ML!B48)-1),ML!B48))</f>
         <v>11</v>
@@ -4177,8 +4324,11 @@
         <f>D47*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="46" t="str">
         <f>IF(ML!B49="",A47, IF(ISNUMBER(FIND("-", ML!B49)), LEFT(ML!B49, FIND("-",ML!B49)-1),ML!B49))</f>
         <v>8</v>
@@ -4193,8 +4343,11 @@
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="37"/>
-    </row>
-    <row r="49" spans="1:5" ht="15">
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="46">
         <f>IF(ML!B50="",A48, IF(ISNUMBER(FIND("-", ML!B50)), LEFT(ML!B50, FIND("-",ML!B50)-1),ML!B50))</f>
         <v>8</v>
@@ -4214,8 +4367,11 @@
         <f>D49*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="46">
         <f>IF(ML!B51="",A49, IF(ISNUMBER(FIND("-", ML!B51)), LEFT(ML!B51, FIND("-",ML!B51)-1),ML!B51))</f>
         <v>15</v>
@@ -4235,8 +4391,11 @@
         <f>D50*1.15</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="46" t="str">
         <f>IF(ML!B52="",A50, IF(ISNUMBER(FIND("-", ML!B52)), LEFT(ML!B52, FIND("-",ML!B52)-1),ML!B52))</f>
         <v>8,3</v>
@@ -4251,8 +4410,11 @@
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="37"/>
-    </row>
-    <row r="52" spans="1:5" ht="15">
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="46">
         <f>IF(ML!B53="",A51, IF(ISNUMBER(FIND("-", ML!B53)), LEFT(ML!B53, FIND("-",ML!B53)-1),ML!B53))</f>
         <v>8.3000000000000007</v>
@@ -4269,11 +4431,14 @@
         <v>60</v>
       </c>
       <c r="E52" s="37">
-        <f>D52*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
+        <f t="shared" ref="E52:E76" si="2">D52*1.15</f>
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="46">
         <f>IF(ML!B54="",A52, IF(ISNUMBER(FIND("-", ML!B54)), LEFT(ML!B54, FIND("-",ML!B54)-1),ML!B54))</f>
         <v>10.8</v>
@@ -4290,11 +4455,14 @@
         <v>60</v>
       </c>
       <c r="E53" s="37">
-        <f>D53*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="46">
         <f>IF(ML!B55="",A53, IF(ISNUMBER(FIND("-", ML!B55)), LEFT(ML!B55, FIND("-",ML!B55)-1),ML!B55))</f>
         <v>14</v>
@@ -4311,11 +4479,14 @@
         <v>60</v>
       </c>
       <c r="E54" s="37">
-        <f>D54*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="46">
         <f>IF(ML!B56="",A54, IF(ISNUMBER(FIND("-", ML!B56)), LEFT(ML!B56, FIND("-",ML!B56)-1),ML!B56))</f>
         <v>15.75</v>
@@ -4332,11 +4503,14 @@
         <v>60</v>
       </c>
       <c r="E55" s="37">
-        <f>D55*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="46" t="str">
         <f>IF(ML!B57="",A55, IF(ISNUMBER(FIND("-", ML!B57)), LEFT(ML!B57, FIND("-",ML!B57)-1),ML!B57))</f>
         <v>10</v>
@@ -4353,11 +4527,14 @@
         <v>60</v>
       </c>
       <c r="E56" s="37">
-        <f>D56*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="46" t="str">
         <f>IF(ML!B58="",A56, IF(ISNUMBER(FIND("-", ML!B58)), LEFT(ML!B58, FIND("-",ML!B58)-1),ML!B58))</f>
         <v>10</v>
@@ -4374,11 +4551,14 @@
         <v>60</v>
       </c>
       <c r="E57" s="37">
-        <f>D57*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="46">
         <f>IF(ML!B59="",A57, IF(ISNUMBER(FIND("-", ML!B59)), LEFT(ML!B59, FIND("-",ML!B59)-1),ML!B59))</f>
         <v>12</v>
@@ -4395,11 +4575,14 @@
         <v>60</v>
       </c>
       <c r="E58" s="37">
-        <f>D58*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15">
       <c r="A59" s="46" t="str">
         <f>IF(ML!B60="",A58, IF(ISNUMBER(FIND("-", ML!B60)), LEFT(ML!B60, FIND("-",ML!B60)-1),ML!B60))</f>
         <v>8</v>
@@ -4416,11 +4599,14 @@
         <v>60</v>
       </c>
       <c r="E59" s="37">
-        <f>D59*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="46" t="str">
         <f>IF(ML!B61="",A59, IF(ISNUMBER(FIND("-", ML!B61)), LEFT(ML!B61, FIND("-",ML!B61)-1),ML!B61))</f>
         <v>15</v>
@@ -4437,11 +4623,14 @@
         <v>60</v>
       </c>
       <c r="E60" s="37">
-        <f>D60*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="46" t="str">
         <f>IF(ML!B62="",A60, IF(ISNUMBER(FIND("-", ML!B62)), LEFT(ML!B62, FIND("-",ML!B62)-1),ML!B62))</f>
         <v>10</v>
@@ -4456,11 +4645,14 @@
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="37">
-        <f>D61*1.15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15">
+      <c r="F61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15">
       <c r="A62" s="46">
         <f>IF(ML!B63="",A61, IF(ISNUMBER(FIND("-", ML!B63)), LEFT(ML!B63, FIND("-",ML!B63)-1),ML!B63))</f>
         <v>10</v>
@@ -4477,11 +4669,14 @@
         <v>60</v>
       </c>
       <c r="E62" s="37">
-        <f>D62*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="46">
         <f>IF(ML!B64="",A62, IF(ISNUMBER(FIND("-", ML!B64)), LEFT(ML!B64, FIND("-",ML!B64)-1),ML!B64))</f>
         <v>15</v>
@@ -4498,11 +4693,14 @@
         <v>60</v>
       </c>
       <c r="E63" s="40">
-        <f>D63*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="46" t="str">
         <f>IF(ML!B65="",A63, IF(ISNUMBER(FIND("-", ML!B65)), LEFT(ML!B65, FIND("-",ML!B65)-1),ML!B65))</f>
         <v>12</v>
@@ -4519,11 +4717,14 @@
         <v>60</v>
       </c>
       <c r="E64" s="41">
-        <f>D64*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="46" t="str">
         <f>IF(ML!B66="",A64, IF(ISNUMBER(FIND("-", ML!B66)), LEFT(ML!B66, FIND("-",ML!B66)-1),ML!B66))</f>
         <v>13,4</v>
@@ -4540,11 +4741,14 @@
         <v>60</v>
       </c>
       <c r="E65" s="37">
-        <f>D65*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15">
       <c r="A66" s="46" t="str">
         <f>IF(ML!B67="",A65, IF(ISNUMBER(FIND("-", ML!B67)), LEFT(ML!B67, FIND("-",ML!B67)-1),ML!B67))</f>
         <v>10,7</v>
@@ -4561,11 +4765,14 @@
         <v>60</v>
       </c>
       <c r="E66" s="37">
-        <f>D66*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="46">
         <f>IF(ML!B68="",A66, IF(ISNUMBER(FIND("-", ML!B68)), LEFT(ML!B68, FIND("-",ML!B68)-1),ML!B68))</f>
         <v>13.4</v>
@@ -4582,11 +4789,14 @@
         <v>60</v>
       </c>
       <c r="E67" s="37">
-        <f>D67*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="46">
         <f>IF(ML!B69="",A67, IF(ISNUMBER(FIND("-", ML!B69)), LEFT(ML!B69, FIND("-",ML!B69)-1),ML!B69))</f>
         <v>20</v>
@@ -4603,11 +4813,14 @@
         <v>60</v>
       </c>
       <c r="E68" s="37">
-        <f>D68*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15">
       <c r="A69" s="46" t="str">
         <f>IF(ML!B70="",A68, IF(ISNUMBER(FIND("-", ML!B70)), LEFT(ML!B70, FIND("-",ML!B70)-1),ML!B70))</f>
         <v>10,7</v>
@@ -4624,11 +4837,14 @@
         <v>60</v>
       </c>
       <c r="E69" s="37">
-        <f>D69*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="46">
         <f>IF(ML!B71="",A69, IF(ISNUMBER(FIND("-", ML!B71)), LEFT(ML!B71, FIND("-",ML!B71)-1),ML!B71))</f>
         <v>13.4</v>
@@ -4645,11 +4861,14 @@
         <v>60</v>
       </c>
       <c r="E70" s="37">
-        <f>D70*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="46">
         <f>IF(ML!B72="",A70, IF(ISNUMBER(FIND("-", ML!B72)), LEFT(ML!B72, FIND("-",ML!B72)-1),ML!B72))</f>
         <v>20</v>
@@ -4666,11 +4885,14 @@
         <v>60</v>
       </c>
       <c r="E71" s="37">
-        <f>D71*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="46" t="str">
         <f>IF(ML!B73="",A71, IF(ISNUMBER(FIND("-", ML!B73)), LEFT(ML!B73, FIND("-",ML!B73)-1),ML!B73))</f>
         <v>10,7</v>
@@ -4687,11 +4909,14 @@
         <v>60</v>
       </c>
       <c r="E72" s="37">
-        <f>D72*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="46">
         <f>IF(ML!B74="",A72, IF(ISNUMBER(FIND("-", ML!B74)), LEFT(ML!B74, FIND("-",ML!B74)-1),ML!B74))</f>
         <v>13.4</v>
@@ -4708,11 +4933,14 @@
         <v>60</v>
       </c>
       <c r="E73" s="37">
-        <f>D73*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="46">
         <f>IF(ML!B75="",A73, IF(ISNUMBER(FIND("-", ML!B75)), LEFT(ML!B75, FIND("-",ML!B75)-1),ML!B75))</f>
         <v>20</v>
@@ -4729,11 +4957,14 @@
         <v>60</v>
       </c>
       <c r="E74" s="37">
-        <f>D74*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="46" t="str">
         <f>IF(ML!B76="",A74, IF(ISNUMBER(FIND("-", ML!B76)), LEFT(ML!B76, FIND("-",ML!B76)-1),ML!B76))</f>
         <v>13,4</v>
@@ -4750,11 +4981,14 @@
         <v>60</v>
       </c>
       <c r="E75" s="37">
-        <f>D75*1.15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="A76" s="49">
         <f>IF(ML!B77="",A75, IF(ISNUMBER(FIND("-", ML!B77)), LEFT(ML!B77, FIND("-",ML!B77)-1),ML!B77))</f>
         <v>15</v>
@@ -4771,8 +5005,11 @@
         <v>60</v>
       </c>
       <c r="E76" s="38">
-        <f>D76*1.15</f>
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
